--- a/Code/Results/Cases/Case_5_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_72/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9794720714831354</v>
+        <v>1.033095748054874</v>
       </c>
       <c r="D2">
-        <v>1.000801697957584</v>
+        <v>1.035837824644373</v>
       </c>
       <c r="E2">
-        <v>0.9879831742855446</v>
+        <v>1.032367888000352</v>
       </c>
       <c r="F2">
-        <v>0.9886511130929798</v>
+        <v>1.041264067148589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034111177119151</v>
+        <v>1.033257053570356</v>
       </c>
       <c r="J2">
-        <v>1.002284598065238</v>
+        <v>1.038222354002994</v>
       </c>
       <c r="K2">
-        <v>1.012249875142458</v>
+        <v>1.038633284321468</v>
       </c>
       <c r="L2">
-        <v>0.9996125006998963</v>
+        <v>1.035173321254598</v>
       </c>
       <c r="M2">
-        <v>1.000270853440995</v>
+        <v>1.044044074934244</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9880034964380621</v>
+        <v>1.034725863497439</v>
       </c>
       <c r="D3">
-        <v>1.007263859935947</v>
+        <v>1.037074053980287</v>
       </c>
       <c r="E3">
-        <v>0.9951285912753639</v>
+        <v>1.033776928272614</v>
       </c>
       <c r="F3">
-        <v>0.9972713451485689</v>
+        <v>1.042974392707843</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036654942646632</v>
+        <v>1.033644668577636</v>
       </c>
       <c r="J3">
-        <v>1.008826627968924</v>
+        <v>1.039491589352489</v>
       </c>
       <c r="K3">
-        <v>1.017804634393346</v>
+        <v>1.039677857957511</v>
       </c>
       <c r="L3">
-        <v>1.005824184503356</v>
+        <v>1.036389513817423</v>
       </c>
       <c r="M3">
-        <v>1.00793925909448</v>
+        <v>1.045562631427253</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9933331840386763</v>
+        <v>1.035778243914784</v>
       </c>
       <c r="D4">
-        <v>1.011303199121995</v>
+        <v>1.037871668507612</v>
       </c>
       <c r="E4">
-        <v>0.9995990366777913</v>
+        <v>1.034686703648659</v>
       </c>
       <c r="F4">
-        <v>1.002661594386634</v>
+        <v>1.044078879040007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038230047806775</v>
+        <v>1.033893043715278</v>
       </c>
       <c r="J4">
-        <v>1.012908978884927</v>
+        <v>1.040310163712612</v>
       </c>
       <c r="K4">
-        <v>1.021267092090802</v>
+        <v>1.040350909144308</v>
       </c>
       <c r="L4">
-        <v>1.009702303383662</v>
+        <v>1.037173994081588</v>
       </c>
       <c r="M4">
-        <v>1.012728002103092</v>
+        <v>1.046542583310783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9955310946633701</v>
+        <v>1.036220098941274</v>
       </c>
       <c r="D5">
-        <v>1.012969388536556</v>
+        <v>1.038206441095392</v>
       </c>
       <c r="E5">
-        <v>1.001444061866021</v>
+        <v>1.035068711459252</v>
       </c>
       <c r="F5">
-        <v>1.004885661753927</v>
+        <v>1.044542688855022</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0388761611649</v>
+        <v>1.03399688034239</v>
       </c>
       <c r="J5">
-        <v>1.014591325632216</v>
+        <v>1.04065365384867</v>
       </c>
       <c r="K5">
-        <v>1.022693024821051</v>
+        <v>1.040633183284157</v>
       </c>
       <c r="L5">
-        <v>1.01130092599538</v>
+        <v>1.037503205066693</v>
       </c>
       <c r="M5">
-        <v>1.014702346839528</v>
+        <v>1.046953930698858</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.995897710933386</v>
+        <v>1.036294255519628</v>
       </c>
       <c r="D6">
-        <v>1.013247332089924</v>
+        <v>1.038262619186853</v>
       </c>
       <c r="E6">
-        <v>1.001751898270272</v>
+        <v>1.035132825444455</v>
       </c>
       <c r="F6">
-        <v>1.005256709508449</v>
+        <v>1.044620534653301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03898372937359</v>
+        <v>1.034014281036542</v>
       </c>
       <c r="J6">
-        <v>1.014871873256342</v>
+        <v>1.040711290177688</v>
       </c>
       <c r="K6">
-        <v>1.022930755685881</v>
+        <v>1.040680538898501</v>
       </c>
       <c r="L6">
-        <v>1.011567537229271</v>
+        <v>1.03755844701284</v>
       </c>
       <c r="M6">
-        <v>1.015031641818233</v>
+        <v>1.047022961450647</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9933627166690461</v>
+        <v>1.035784150209493</v>
       </c>
       <c r="D7">
-        <v>1.01132558577345</v>
+        <v>1.037876143883803</v>
       </c>
       <c r="E7">
-        <v>0.999623822086144</v>
+        <v>1.034691809857145</v>
       </c>
       <c r="F7">
-        <v>1.002691473842414</v>
+        <v>1.044085078500672</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038238743178635</v>
+        <v>1.033894433460862</v>
       </c>
       <c r="J7">
-        <v>1.012931588808693</v>
+        <v>1.040314755940798</v>
       </c>
       <c r="K7">
-        <v>1.021286259766881</v>
+        <v>1.040354683553151</v>
       </c>
       <c r="L7">
-        <v>1.0097237863728</v>
+        <v>1.037178395299682</v>
       </c>
       <c r="M7">
-        <v>1.012754532739684</v>
+        <v>1.046548082192398</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9823966802344793</v>
+        <v>1.033647160161469</v>
       </c>
       <c r="D8">
-        <v>1.003016356266209</v>
+        <v>1.036256097028968</v>
       </c>
       <c r="E8">
-        <v>0.9904311689570966</v>
+        <v>1.032844492881393</v>
       </c>
       <c r="F8">
-        <v>0.9916050642866155</v>
+        <v>1.041842544563812</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034986107424488</v>
+        <v>1.033388556616968</v>
       </c>
       <c r="J8">
-        <v>1.00452813913559</v>
+        <v>1.038651863868986</v>
       </c>
       <c r="K8">
-        <v>1.014155623527912</v>
+        <v>1.038986899184738</v>
       </c>
       <c r="L8">
-        <v>1.001742335430605</v>
+        <v>1.035584857458016</v>
       </c>
       <c r="M8">
-        <v>1.002899964050085</v>
+        <v>1.044557834980559</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9614608317743307</v>
+        <v>1.029862485496266</v>
       </c>
       <c r="D9">
-        <v>0.9871804274063476</v>
+        <v>1.033383321459145</v>
       </c>
       <c r="E9">
-        <v>0.9729422955546571</v>
+        <v>1.029573790681578</v>
       </c>
       <c r="F9">
-        <v>0.970483213060065</v>
+        <v>1.037873433578813</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02866538708236</v>
+        <v>1.032478317804452</v>
       </c>
       <c r="J9">
-        <v>0.9884519639527686</v>
+        <v>1.03570049581953</v>
       </c>
       <c r="K9">
-        <v>1.000484974814284</v>
+        <v>1.03655445887289</v>
       </c>
       <c r="L9">
-        <v>0.9864901695763199</v>
+        <v>1.032757475077431</v>
       </c>
       <c r="M9">
-        <v>0.9840740490764632</v>
+        <v>1.041029912062324</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9461724415642392</v>
+        <v>1.027325815932184</v>
       </c>
       <c r="D10">
-        <v>0.9756489405648033</v>
+        <v>1.031455489934723</v>
       </c>
       <c r="E10">
-        <v>0.9602246137542457</v>
+        <v>1.027382312206214</v>
       </c>
       <c r="F10">
-        <v>0.9550924423132429</v>
+        <v>1.035214815411137</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023980267206535</v>
+        <v>1.031858628214961</v>
       </c>
       <c r="J10">
-        <v>0.9766973672618774</v>
+        <v>1.033718117961167</v>
       </c>
       <c r="K10">
-        <v>0.9904722345184577</v>
+        <v>1.034917404475412</v>
       </c>
       <c r="L10">
-        <v>0.9753511837882607</v>
+        <v>1.030858985989487</v>
       </c>
       <c r="M10">
-        <v>0.9703227851977078</v>
+        <v>1.038663221705196</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9391684986138372</v>
+        <v>1.026224024956076</v>
       </c>
       <c r="D11">
-        <v>0.9703775856061414</v>
+        <v>1.030617602143003</v>
       </c>
       <c r="E11">
-        <v>0.9544142385565532</v>
+        <v>1.026430633345172</v>
       </c>
       <c r="F11">
-        <v>0.9480504813819249</v>
+        <v>1.034060451929173</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021819136629244</v>
+        <v>1.031587197210531</v>
       </c>
       <c r="J11">
-        <v>0.9713107724331627</v>
+        <v>1.032856084945111</v>
       </c>
       <c r="K11">
-        <v>0.985880626743135</v>
+        <v>1.034204774506837</v>
       </c>
       <c r="L11">
-        <v>0.9702502714530153</v>
+        <v>1.03003357847148</v>
       </c>
       <c r="M11">
-        <v>0.9640234123669075</v>
+        <v>1.037634760636036</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9365021862194748</v>
+        <v>1.025814245696935</v>
       </c>
       <c r="D12">
-        <v>0.9683729408294424</v>
+        <v>1.030305893898078</v>
       </c>
       <c r="E12">
-        <v>0.9522050022638522</v>
+        <v>1.026076712100224</v>
       </c>
       <c r="F12">
-        <v>0.9453711240367849</v>
+        <v>1.033631179185867</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020994374128634</v>
+        <v>1.03148590554813</v>
       </c>
       <c r="J12">
-        <v>0.9692601317922649</v>
+        <v>1.032535327662817</v>
       </c>
       <c r="K12">
-        <v>0.9841322288455502</v>
+        <v>1.033939495491647</v>
       </c>
       <c r="L12">
-        <v>0.968308972043031</v>
+        <v>1.02972647151333</v>
       </c>
       <c r="M12">
-        <v>0.9616255043402543</v>
+        <v>1.037252179239908</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9370771755449168</v>
+        <v>1.025902168736774</v>
       </c>
       <c r="D13">
-        <v>0.9688051408607736</v>
+        <v>1.030372778231901</v>
       </c>
       <c r="E13">
-        <v>0.9526812959749108</v>
+        <v>1.026152648843107</v>
       </c>
       <c r="F13">
-        <v>0.9459488604712512</v>
+        <v>1.033723282102078</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021172323165381</v>
+        <v>1.031507654294006</v>
       </c>
       <c r="J13">
-        <v>0.9697023496021887</v>
+        <v>1.03260415670719</v>
       </c>
       <c r="K13">
-        <v>0.9845092852004641</v>
+        <v>1.033996424981818</v>
       </c>
       <c r="L13">
-        <v>0.9687275834186627</v>
+        <v>1.029792370423936</v>
       </c>
       <c r="M13">
-        <v>0.9621426018458948</v>
+        <v>1.037334270049359</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9389494662015057</v>
+        <v>1.02619016327123</v>
       </c>
       <c r="D14">
-        <v>0.9702128632279136</v>
+        <v>1.030591846080718</v>
       </c>
       <c r="E14">
-        <v>0.9542326974394321</v>
+        <v>1.026401386848785</v>
       </c>
       <c r="F14">
-        <v>0.9478303478682086</v>
+        <v>1.034024978210795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021751424344548</v>
+        <v>1.03157883402431</v>
       </c>
       <c r="J14">
-        <v>0.971142315648419</v>
+        <v>1.032829582535119</v>
       </c>
       <c r="K14">
-        <v>0.9857370063679661</v>
+        <v>1.0341828582763</v>
       </c>
       <c r="L14">
-        <v>0.9700907847633852</v>
+        <v>1.03000820345915</v>
       </c>
       <c r="M14">
-        <v>0.9638264243459118</v>
+        <v>1.0376031479492</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9400942361828405</v>
+        <v>1.026367536192252</v>
       </c>
       <c r="D15">
-        <v>0.9710738697432749</v>
+        <v>1.03072675718279</v>
       </c>
       <c r="E15">
-        <v>0.9551816311243631</v>
+        <v>1.026554585833761</v>
       </c>
       <c r="F15">
-        <v>0.9489809312242139</v>
+        <v>1.034210797649698</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022105239772764</v>
+        <v>1.031622627786949</v>
       </c>
       <c r="J15">
-        <v>0.9720227527589431</v>
+        <v>1.032968400300011</v>
       </c>
       <c r="K15">
-        <v>0.9864876204695309</v>
+        <v>1.034297649304603</v>
       </c>
       <c r="L15">
-        <v>0.9709243637573921</v>
+        <v>1.030141116903538</v>
       </c>
       <c r="M15">
-        <v>0.9648559878483076</v>
+        <v>1.037768737186225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9466286060436017</v>
+        <v>1.027398865356491</v>
       </c>
       <c r="D16">
-        <v>0.9759925279886074</v>
+        <v>1.031511031112012</v>
       </c>
       <c r="E16">
-        <v>0.9606033935784476</v>
+        <v>1.027445412986481</v>
       </c>
       <c r="F16">
-        <v>0.9555512732707723</v>
+        <v>1.035291358739342</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02412073062708</v>
+        <v>1.031876576501219</v>
       </c>
       <c r="J16">
-        <v>0.977048178497225</v>
+        <v>1.033775250373486</v>
       </c>
       <c r="K16">
-        <v>0.9907712109826694</v>
+        <v>1.034964619050841</v>
       </c>
       <c r="L16">
-        <v>0.9756834668012579</v>
+        <v>1.030913694095551</v>
       </c>
       <c r="M16">
-        <v>0.9707330791938333</v>
+        <v>1.038731398795248</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9506200357702926</v>
+        <v>1.028044871220771</v>
       </c>
       <c r="D17">
-        <v>0.9790002346916753</v>
+        <v>1.032002141969011</v>
       </c>
       <c r="E17">
-        <v>0.9639195204794039</v>
+        <v>1.02800345982421</v>
       </c>
       <c r="F17">
-        <v>0.9595670400508668</v>
+        <v>1.035968308209439</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025348144776273</v>
+        <v>1.032035038584023</v>
       </c>
       <c r="J17">
-        <v>0.9801176156544814</v>
+        <v>1.034280380790188</v>
       </c>
       <c r="K17">
-        <v>0.9933867647115815</v>
+        <v>1.035381974361457</v>
       </c>
       <c r="L17">
-        <v>0.9785911960570555</v>
+        <v>1.031397407177848</v>
       </c>
       <c r="M17">
-        <v>0.9743231986493885</v>
+        <v>1.03933425897727</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9529116568012872</v>
+        <v>1.028421348822637</v>
       </c>
       <c r="D18">
-        <v>0.9807281087232178</v>
+        <v>1.03228829788622</v>
       </c>
       <c r="E18">
-        <v>0.9658248836722909</v>
+        <v>1.028328694147911</v>
       </c>
       <c r="F18">
-        <v>0.9618734556986946</v>
+        <v>1.036362857121223</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026051456748343</v>
+        <v>1.032127167887168</v>
       </c>
       <c r="J18">
-        <v>0.9818797283594012</v>
+        <v>1.034574663390821</v>
       </c>
       <c r="K18">
-        <v>0.9948880040026031</v>
+        <v>1.035625047099875</v>
       </c>
       <c r="L18">
-        <v>0.9802608050465272</v>
+        <v>1.031679226411375</v>
       </c>
       <c r="M18">
-        <v>0.9763844395951697</v>
+        <v>1.039685544116076</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9536870420294259</v>
+        <v>1.028549662988278</v>
       </c>
       <c r="D19">
-        <v>0.981312913354101</v>
+        <v>1.032385818951487</v>
       </c>
       <c r="E19">
-        <v>0.9664698147047051</v>
+        <v>1.028439546053953</v>
       </c>
       <c r="F19">
-        <v>0.9626539836802234</v>
+        <v>1.036497336958106</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026289186576141</v>
+        <v>1.032158531016939</v>
       </c>
       <c r="J19">
-        <v>0.9824759183709073</v>
+        <v>1.034674946888344</v>
       </c>
       <c r="K19">
-        <v>0.9953958763764014</v>
+        <v>1.03570786724053</v>
       </c>
       <c r="L19">
-        <v>0.980825752263464</v>
+        <v>1.03177526511955</v>
       </c>
       <c r="M19">
-        <v>0.9770818752550265</v>
+        <v>1.039805263815975</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9501956168739749</v>
+        <v>1.027975594803012</v>
       </c>
       <c r="D20">
-        <v>0.9786803065828736</v>
+        <v>1.031949481601222</v>
       </c>
       <c r="E20">
-        <v>0.9635667545233707</v>
+        <v>1.027943614168881</v>
       </c>
       <c r="F20">
-        <v>0.95913994719739</v>
+        <v>1.035895709519934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025217774204714</v>
+        <v>1.032018068053972</v>
       </c>
       <c r="J20">
-        <v>0.9797912498806031</v>
+        <v>1.034226221509052</v>
       </c>
       <c r="K20">
-        <v>0.9931086906181623</v>
+        <v>1.035337233758533</v>
       </c>
       <c r="L20">
-        <v>0.9782819896341454</v>
+        <v>1.03134554276884</v>
       </c>
       <c r="M20">
-        <v>0.97394144852923</v>
+        <v>1.03926961439939</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9383999731542383</v>
+        <v>1.026105370671823</v>
       </c>
       <c r="D21">
-        <v>0.969799654321772</v>
+        <v>1.03052734937486</v>
       </c>
       <c r="E21">
-        <v>0.9537773044119342</v>
+        <v>1.026328151540666</v>
       </c>
       <c r="F21">
-        <v>0.9472781157236412</v>
+        <v>1.033936149897493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021581520303151</v>
+        <v>1.031557886378629</v>
       </c>
       <c r="J21">
-        <v>0.9707197033883632</v>
+        <v>1.032763215793968</v>
       </c>
       <c r="K21">
-        <v>0.9853766957221158</v>
+        <v>1.034127974308627</v>
       </c>
       <c r="L21">
-        <v>0.9696906855771199</v>
+        <v>1.029944660280966</v>
       </c>
       <c r="M21">
-        <v>0.9633322381211207</v>
+        <v>1.037523985823793</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9306045765459441</v>
+        <v>1.024926441419925</v>
       </c>
       <c r="D22">
-        <v>0.9639432066709988</v>
+        <v>1.029630419603167</v>
       </c>
       <c r="E22">
-        <v>0.9473237881913513</v>
+        <v>1.025309979356702</v>
       </c>
       <c r="F22">
-        <v>0.9394474183457924</v>
+        <v>1.032701249950322</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019166510489584</v>
+        <v>1.031265829933341</v>
       </c>
       <c r="J22">
-        <v>0.9647245187280973</v>
+        <v>1.031840121238568</v>
       </c>
       <c r="K22">
-        <v>0.9802644712972276</v>
+        <v>1.033364324616097</v>
       </c>
       <c r="L22">
-        <v>0.964016338821739</v>
+        <v>1.029060891485159</v>
       </c>
       <c r="M22">
-        <v>0.956322076109806</v>
+        <v>1.036423162950954</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9347756856919455</v>
+        <v>1.025551707736269</v>
       </c>
       <c r="D23">
-        <v>0.9670755273703542</v>
+        <v>1.030106165831835</v>
       </c>
       <c r="E23">
-        <v>0.950775274603024</v>
+        <v>1.025849969400086</v>
       </c>
       <c r="F23">
-        <v>0.9436365922100846</v>
+        <v>1.033356168810352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020459767214597</v>
+        <v>1.031420913993506</v>
       </c>
       <c r="J23">
-        <v>0.9679323123396167</v>
+        <v>1.032329782540734</v>
       </c>
       <c r="K23">
-        <v>0.9830000133109066</v>
+        <v>1.033769469559322</v>
       </c>
       <c r="L23">
-        <v>0.9670521237505828</v>
+        <v>1.029529679953493</v>
       </c>
       <c r="M23">
-        <v>0.9600728713742124</v>
+        <v>1.037007045311349</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9503875058208416</v>
+        <v>1.028006898843596</v>
       </c>
       <c r="D24">
-        <v>0.9788249497698185</v>
+        <v>1.03197327748399</v>
       </c>
       <c r="E24">
-        <v>0.9637262431175648</v>
+        <v>1.027970656663211</v>
       </c>
       <c r="F24">
-        <v>0.9593330425480332</v>
+        <v>1.035928514682806</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025276721891187</v>
+        <v>1.03202573722976</v>
       </c>
       <c r="J24">
-        <v>0.9799388074051434</v>
+        <v>1.0342506948428</v>
       </c>
       <c r="K24">
-        <v>0.9932344153149367</v>
+        <v>1.035357451234523</v>
       </c>
       <c r="L24">
-        <v>0.9784217879951086</v>
+        <v>1.031368979059058</v>
       </c>
       <c r="M24">
-        <v>0.974114045928187</v>
+        <v>1.03929882559223</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9670875860663355</v>
+        <v>1.030843247153842</v>
       </c>
       <c r="D25">
-        <v>0.9914320664185187</v>
+        <v>1.034128193999135</v>
       </c>
       <c r="E25">
-        <v>0.977634500991919</v>
+        <v>1.03042124238626</v>
       </c>
       <c r="F25">
-        <v>0.9761545854436579</v>
+        <v>1.03890169638392</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03037635715783</v>
+        <v>1.032715888075868</v>
       </c>
       <c r="J25">
-        <v>0.9927757215244817</v>
+        <v>1.036466060332154</v>
       </c>
       <c r="K25">
-        <v>1.004164860763136</v>
+        <v>1.037185986579461</v>
       </c>
       <c r="L25">
-        <v>0.990590227197946</v>
+        <v>1.033490772079454</v>
       </c>
       <c r="M25">
-        <v>0.9891347046819758</v>
+        <v>1.041944509716573</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_72/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033095748054874</v>
+        <v>0.9794720714831335</v>
       </c>
       <c r="D2">
-        <v>1.035837824644373</v>
+        <v>1.000801697957583</v>
       </c>
       <c r="E2">
-        <v>1.032367888000352</v>
+        <v>0.9879831742855431</v>
       </c>
       <c r="F2">
-        <v>1.041264067148589</v>
+        <v>0.9886511130929782</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033257053570356</v>
+        <v>1.034111177119151</v>
       </c>
       <c r="J2">
-        <v>1.038222354002994</v>
+        <v>1.002284598065236</v>
       </c>
       <c r="K2">
-        <v>1.038633284321468</v>
+        <v>1.012249875142457</v>
       </c>
       <c r="L2">
-        <v>1.035173321254598</v>
+        <v>0.9996125006998949</v>
       </c>
       <c r="M2">
-        <v>1.044044074934244</v>
+        <v>1.000270853440993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034725863497439</v>
+        <v>0.9880034964380623</v>
       </c>
       <c r="D3">
-        <v>1.037074053980287</v>
+        <v>1.007263859935948</v>
       </c>
       <c r="E3">
-        <v>1.033776928272614</v>
+        <v>0.9951285912753639</v>
       </c>
       <c r="F3">
-        <v>1.042974392707843</v>
+        <v>0.997271345148569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033644668577636</v>
+        <v>1.036654942646632</v>
       </c>
       <c r="J3">
-        <v>1.039491589352489</v>
+        <v>1.008826627968924</v>
       </c>
       <c r="K3">
-        <v>1.039677857957511</v>
+        <v>1.017804634393346</v>
       </c>
       <c r="L3">
-        <v>1.036389513817423</v>
+        <v>1.005824184503356</v>
       </c>
       <c r="M3">
-        <v>1.045562631427253</v>
+        <v>1.00793925909448</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035778243914784</v>
+        <v>0.9933331840386741</v>
       </c>
       <c r="D4">
-        <v>1.037871668507612</v>
+        <v>1.011303199121993</v>
       </c>
       <c r="E4">
-        <v>1.034686703648659</v>
+        <v>0.999599036677789</v>
       </c>
       <c r="F4">
-        <v>1.044078879040007</v>
+        <v>1.002661594386632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033893043715278</v>
+        <v>1.038230047806774</v>
       </c>
       <c r="J4">
-        <v>1.040310163712612</v>
+        <v>1.012908978884925</v>
       </c>
       <c r="K4">
-        <v>1.040350909144308</v>
+        <v>1.0212670920908</v>
       </c>
       <c r="L4">
-        <v>1.037173994081588</v>
+        <v>1.00970230338366</v>
       </c>
       <c r="M4">
-        <v>1.046542583310783</v>
+        <v>1.01272800210309</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036220098941274</v>
+        <v>0.99553109466337</v>
       </c>
       <c r="D5">
-        <v>1.038206441095392</v>
+        <v>1.012969388536556</v>
       </c>
       <c r="E5">
-        <v>1.035068711459252</v>
+        <v>1.00144406186602</v>
       </c>
       <c r="F5">
-        <v>1.044542688855022</v>
+        <v>1.004885661753927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03399688034239</v>
+        <v>1.0388761611649</v>
       </c>
       <c r="J5">
-        <v>1.04065365384867</v>
+        <v>1.014591325632216</v>
       </c>
       <c r="K5">
-        <v>1.040633183284157</v>
+        <v>1.022693024821051</v>
       </c>
       <c r="L5">
-        <v>1.037503205066693</v>
+        <v>1.01130092599538</v>
       </c>
       <c r="M5">
-        <v>1.046953930698858</v>
+        <v>1.014702346839528</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036294255519628</v>
+        <v>0.9958977109333842</v>
       </c>
       <c r="D6">
-        <v>1.038262619186853</v>
+        <v>1.013247332089923</v>
       </c>
       <c r="E6">
-        <v>1.035132825444455</v>
+        <v>1.00175189827027</v>
       </c>
       <c r="F6">
-        <v>1.044620534653301</v>
+        <v>1.005256709508448</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034014281036542</v>
+        <v>1.03898372937359</v>
       </c>
       <c r="J6">
-        <v>1.040711290177688</v>
+        <v>1.014871873256341</v>
       </c>
       <c r="K6">
-        <v>1.040680538898501</v>
+        <v>1.02293075568588</v>
       </c>
       <c r="L6">
-        <v>1.03755844701284</v>
+        <v>1.01156753722927</v>
       </c>
       <c r="M6">
-        <v>1.047022961450647</v>
+        <v>1.015031641818231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.035784150209493</v>
+        <v>0.993362716669044</v>
       </c>
       <c r="D7">
-        <v>1.037876143883803</v>
+        <v>1.011325585773448</v>
       </c>
       <c r="E7">
-        <v>1.034691809857145</v>
+        <v>0.999623822086142</v>
       </c>
       <c r="F7">
-        <v>1.044085078500672</v>
+        <v>1.002691473842412</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033894433460862</v>
+        <v>1.038238743178635</v>
       </c>
       <c r="J7">
-        <v>1.040314755940798</v>
+        <v>1.012931588808691</v>
       </c>
       <c r="K7">
-        <v>1.040354683553151</v>
+        <v>1.021286259766879</v>
       </c>
       <c r="L7">
-        <v>1.037178395299682</v>
+        <v>1.009723786372798</v>
       </c>
       <c r="M7">
-        <v>1.046548082192398</v>
+        <v>1.012754532739683</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033647160161469</v>
+        <v>0.9823966802344778</v>
       </c>
       <c r="D8">
-        <v>1.036256097028968</v>
+        <v>1.003016356266208</v>
       </c>
       <c r="E8">
-        <v>1.032844492881393</v>
+        <v>0.990431168957095</v>
       </c>
       <c r="F8">
-        <v>1.041842544563812</v>
+        <v>0.9916050642866142</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033388556616968</v>
+        <v>1.034986107424488</v>
       </c>
       <c r="J8">
-        <v>1.038651863868986</v>
+        <v>1.004528139135588</v>
       </c>
       <c r="K8">
-        <v>1.038986899184738</v>
+        <v>1.01415562352791</v>
       </c>
       <c r="L8">
-        <v>1.035584857458016</v>
+        <v>1.001742335430603</v>
       </c>
       <c r="M8">
-        <v>1.044557834980559</v>
+        <v>1.002899964050084</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029862485496266</v>
+        <v>0.9614608317743292</v>
       </c>
       <c r="D9">
-        <v>1.033383321459145</v>
+        <v>0.9871804274063464</v>
       </c>
       <c r="E9">
-        <v>1.029573790681578</v>
+        <v>0.9729422955546556</v>
       </c>
       <c r="F9">
-        <v>1.037873433578813</v>
+        <v>0.9704832130600636</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032478317804452</v>
+        <v>1.02866538708236</v>
       </c>
       <c r="J9">
-        <v>1.03570049581953</v>
+        <v>0.988451963952767</v>
       </c>
       <c r="K9">
-        <v>1.03655445887289</v>
+        <v>1.000484974814283</v>
       </c>
       <c r="L9">
-        <v>1.032757475077431</v>
+        <v>0.9864901695763183</v>
       </c>
       <c r="M9">
-        <v>1.041029912062324</v>
+        <v>0.9840740490764619</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027325815932184</v>
+        <v>0.9461724415642372</v>
       </c>
       <c r="D10">
-        <v>1.031455489934723</v>
+        <v>0.9756489405648014</v>
       </c>
       <c r="E10">
-        <v>1.027382312206214</v>
+        <v>0.9602246137542436</v>
       </c>
       <c r="F10">
-        <v>1.035214815411137</v>
+        <v>0.9550924423132409</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031858628214961</v>
+        <v>1.023980267206534</v>
       </c>
       <c r="J10">
-        <v>1.033718117961167</v>
+        <v>0.9766973672618754</v>
       </c>
       <c r="K10">
-        <v>1.034917404475412</v>
+        <v>0.9904722345184561</v>
       </c>
       <c r="L10">
-        <v>1.030858985989487</v>
+        <v>0.9753511837882588</v>
       </c>
       <c r="M10">
-        <v>1.038663221705196</v>
+        <v>0.9703227851977059</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026224024956076</v>
+        <v>0.9391684986138347</v>
       </c>
       <c r="D11">
-        <v>1.030617602143003</v>
+        <v>0.9703775856061391</v>
       </c>
       <c r="E11">
-        <v>1.026430633345172</v>
+        <v>0.9544142385565507</v>
       </c>
       <c r="F11">
-        <v>1.034060451929173</v>
+        <v>0.9480504813819227</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031587197210531</v>
+        <v>1.021819136629243</v>
       </c>
       <c r="J11">
-        <v>1.032856084945111</v>
+        <v>0.9713107724331603</v>
       </c>
       <c r="K11">
-        <v>1.034204774506837</v>
+        <v>0.985880626743133</v>
       </c>
       <c r="L11">
-        <v>1.03003357847148</v>
+        <v>0.9702502714530132</v>
       </c>
       <c r="M11">
-        <v>1.037634760636036</v>
+        <v>0.9640234123669054</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025814245696935</v>
+        <v>0.9365021862194762</v>
       </c>
       <c r="D12">
-        <v>1.030305893898078</v>
+        <v>0.9683729408294437</v>
       </c>
       <c r="E12">
-        <v>1.026076712100224</v>
+        <v>0.9522050022638536</v>
       </c>
       <c r="F12">
-        <v>1.033631179185867</v>
+        <v>0.9453711240367865</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03148590554813</v>
+        <v>1.020994374128635</v>
       </c>
       <c r="J12">
-        <v>1.032535327662817</v>
+        <v>0.9692601317922663</v>
       </c>
       <c r="K12">
-        <v>1.033939495491647</v>
+        <v>0.9841322288455514</v>
       </c>
       <c r="L12">
-        <v>1.02972647151333</v>
+        <v>0.9683089720430321</v>
       </c>
       <c r="M12">
-        <v>1.037252179239908</v>
+        <v>0.9616255043402562</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025902168736774</v>
+        <v>0.9370771755449169</v>
       </c>
       <c r="D13">
-        <v>1.030372778231901</v>
+        <v>0.9688051408607742</v>
       </c>
       <c r="E13">
-        <v>1.026152648843107</v>
+        <v>0.9526812959749109</v>
       </c>
       <c r="F13">
-        <v>1.033723282102078</v>
+        <v>0.9459488604712512</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031507654294006</v>
+        <v>1.021172323165381</v>
       </c>
       <c r="J13">
-        <v>1.03260415670719</v>
+        <v>0.9697023496021889</v>
       </c>
       <c r="K13">
-        <v>1.033996424981818</v>
+        <v>0.9845092852004642</v>
       </c>
       <c r="L13">
-        <v>1.029792370423936</v>
+        <v>0.9687275834186628</v>
       </c>
       <c r="M13">
-        <v>1.037334270049359</v>
+        <v>0.962142601845895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02619016327123</v>
+        <v>0.938949466201506</v>
       </c>
       <c r="D14">
-        <v>1.030591846080718</v>
+        <v>0.9702128632279137</v>
       </c>
       <c r="E14">
-        <v>1.026401386848785</v>
+        <v>0.9542326974394321</v>
       </c>
       <c r="F14">
-        <v>1.034024978210795</v>
+        <v>0.9478303478682085</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03157883402431</v>
+        <v>1.021751424344548</v>
       </c>
       <c r="J14">
-        <v>1.032829582535119</v>
+        <v>0.9711423156484192</v>
       </c>
       <c r="K14">
-        <v>1.0341828582763</v>
+        <v>0.9857370063679662</v>
       </c>
       <c r="L14">
-        <v>1.03000820345915</v>
+        <v>0.9700907847633854</v>
       </c>
       <c r="M14">
-        <v>1.0376031479492</v>
+        <v>0.9638264243459118</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026367536192252</v>
+        <v>0.9400942361828406</v>
       </c>
       <c r="D15">
-        <v>1.03072675718279</v>
+        <v>0.9710738697432749</v>
       </c>
       <c r="E15">
-        <v>1.026554585833761</v>
+        <v>0.9551816311243631</v>
       </c>
       <c r="F15">
-        <v>1.034210797649698</v>
+        <v>0.9489809312242139</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031622627786949</v>
+        <v>1.022105239772764</v>
       </c>
       <c r="J15">
-        <v>1.032968400300011</v>
+        <v>0.972022752758943</v>
       </c>
       <c r="K15">
-        <v>1.034297649304603</v>
+        <v>0.9864876204695309</v>
       </c>
       <c r="L15">
-        <v>1.030141116903538</v>
+        <v>0.9709243637573923</v>
       </c>
       <c r="M15">
-        <v>1.037768737186225</v>
+        <v>0.9648559878483075</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027398865356491</v>
+        <v>0.9466286060436009</v>
       </c>
       <c r="D16">
-        <v>1.031511031112012</v>
+        <v>0.9759925279886068</v>
       </c>
       <c r="E16">
-        <v>1.027445412986481</v>
+        <v>0.9606033935784469</v>
       </c>
       <c r="F16">
-        <v>1.035291358739342</v>
+        <v>0.9555512732707717</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031876576501219</v>
+        <v>1.02412073062708</v>
       </c>
       <c r="J16">
-        <v>1.033775250373486</v>
+        <v>0.9770481784972243</v>
       </c>
       <c r="K16">
-        <v>1.034964619050841</v>
+        <v>0.9907712109826686</v>
       </c>
       <c r="L16">
-        <v>1.030913694095551</v>
+        <v>0.9756834668012572</v>
       </c>
       <c r="M16">
-        <v>1.038731398795248</v>
+        <v>0.9707330791938329</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028044871220771</v>
+        <v>0.9506200357702921</v>
       </c>
       <c r="D17">
-        <v>1.032002141969011</v>
+        <v>0.9790002346916749</v>
       </c>
       <c r="E17">
-        <v>1.02800345982421</v>
+        <v>0.9639195204794033</v>
       </c>
       <c r="F17">
-        <v>1.035968308209439</v>
+        <v>0.9595670400508665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032035038584023</v>
+        <v>1.025348144776273</v>
       </c>
       <c r="J17">
-        <v>1.034280380790188</v>
+        <v>0.9801176156544809</v>
       </c>
       <c r="K17">
-        <v>1.035381974361457</v>
+        <v>0.993386764711581</v>
       </c>
       <c r="L17">
-        <v>1.031397407177848</v>
+        <v>0.9785911960570549</v>
       </c>
       <c r="M17">
-        <v>1.03933425897727</v>
+        <v>0.9743231986493883</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028421348822637</v>
+        <v>0.9529116568012859</v>
       </c>
       <c r="D18">
-        <v>1.03228829788622</v>
+        <v>0.9807281087232168</v>
       </c>
       <c r="E18">
-        <v>1.028328694147911</v>
+        <v>0.9658248836722895</v>
       </c>
       <c r="F18">
-        <v>1.036362857121223</v>
+        <v>0.9618734556986939</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032127167887168</v>
+        <v>1.026051456748342</v>
       </c>
       <c r="J18">
-        <v>1.034574663390821</v>
+        <v>0.9818797283594002</v>
       </c>
       <c r="K18">
-        <v>1.035625047099875</v>
+        <v>0.9948880040026024</v>
       </c>
       <c r="L18">
-        <v>1.031679226411375</v>
+        <v>0.9802608050465259</v>
       </c>
       <c r="M18">
-        <v>1.039685544116076</v>
+        <v>0.9763844395951689</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028549662988278</v>
+        <v>0.9536870420294257</v>
       </c>
       <c r="D19">
-        <v>1.032385818951487</v>
+        <v>0.9813129133541011</v>
       </c>
       <c r="E19">
-        <v>1.028439546053953</v>
+        <v>0.9664698147047046</v>
       </c>
       <c r="F19">
-        <v>1.036497336958106</v>
+        <v>0.9626539836802233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032158531016939</v>
+        <v>1.026289186576141</v>
       </c>
       <c r="J19">
-        <v>1.034674946888344</v>
+        <v>0.9824759183709072</v>
       </c>
       <c r="K19">
-        <v>1.03570786724053</v>
+        <v>0.9953958763764014</v>
       </c>
       <c r="L19">
-        <v>1.03177526511955</v>
+        <v>0.9808257522634636</v>
       </c>
       <c r="M19">
-        <v>1.039805263815975</v>
+        <v>0.9770818752550268</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027975594803012</v>
+        <v>0.9501956168739749</v>
       </c>
       <c r="D20">
-        <v>1.031949481601222</v>
+        <v>0.9786803065828736</v>
       </c>
       <c r="E20">
-        <v>1.027943614168881</v>
+        <v>0.9635667545233708</v>
       </c>
       <c r="F20">
-        <v>1.035895709519934</v>
+        <v>0.9591399471973899</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032018068053972</v>
+        <v>1.025217774204714</v>
       </c>
       <c r="J20">
-        <v>1.034226221509052</v>
+        <v>0.9797912498806032</v>
       </c>
       <c r="K20">
-        <v>1.035337233758533</v>
+        <v>0.9931086906181621</v>
       </c>
       <c r="L20">
-        <v>1.03134554276884</v>
+        <v>0.9782819896341456</v>
       </c>
       <c r="M20">
-        <v>1.03926961439939</v>
+        <v>0.97394144852923</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026105370671823</v>
+        <v>0.9383999731542395</v>
       </c>
       <c r="D21">
-        <v>1.03052734937486</v>
+        <v>0.9697996543217731</v>
       </c>
       <c r="E21">
-        <v>1.026328151540666</v>
+        <v>0.9537773044119353</v>
       </c>
       <c r="F21">
-        <v>1.033936149897493</v>
+        <v>0.9472781157236421</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031557886378629</v>
+        <v>1.021581520303152</v>
       </c>
       <c r="J21">
-        <v>1.032763215793968</v>
+        <v>0.9707197033883646</v>
       </c>
       <c r="K21">
-        <v>1.034127974308627</v>
+        <v>0.9853766957221167</v>
       </c>
       <c r="L21">
-        <v>1.029944660280966</v>
+        <v>0.9696906855771209</v>
       </c>
       <c r="M21">
-        <v>1.037523985823793</v>
+        <v>0.9633322381211216</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024926441419925</v>
+        <v>0.9306045765459429</v>
       </c>
       <c r="D22">
-        <v>1.029630419603167</v>
+        <v>0.9639432066709982</v>
       </c>
       <c r="E22">
-        <v>1.025309979356702</v>
+        <v>0.9473237881913507</v>
       </c>
       <c r="F22">
-        <v>1.032701249950322</v>
+        <v>0.9394474183457914</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031265829933341</v>
+        <v>1.019166510489584</v>
       </c>
       <c r="J22">
-        <v>1.031840121238568</v>
+        <v>0.9647245187280965</v>
       </c>
       <c r="K22">
-        <v>1.033364324616097</v>
+        <v>0.9802644712972272</v>
       </c>
       <c r="L22">
-        <v>1.029060891485159</v>
+        <v>0.9640163388217383</v>
       </c>
       <c r="M22">
-        <v>1.036423162950954</v>
+        <v>0.9563220761098052</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025551707736269</v>
+        <v>0.934775685691944</v>
       </c>
       <c r="D23">
-        <v>1.030106165831835</v>
+        <v>0.9670755273703533</v>
       </c>
       <c r="E23">
-        <v>1.025849969400086</v>
+        <v>0.9507752746030228</v>
       </c>
       <c r="F23">
-        <v>1.033356168810352</v>
+        <v>0.9436365922100834</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031420913993506</v>
+        <v>1.020459767214598</v>
       </c>
       <c r="J23">
-        <v>1.032329782540734</v>
+        <v>0.9679323123396156</v>
       </c>
       <c r="K23">
-        <v>1.033769469559322</v>
+        <v>0.9830000133109058</v>
       </c>
       <c r="L23">
-        <v>1.029529679953493</v>
+        <v>0.9670521237505817</v>
       </c>
       <c r="M23">
-        <v>1.037007045311349</v>
+        <v>0.9600728713742114</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028006898843596</v>
+        <v>0.9503875058208405</v>
       </c>
       <c r="D24">
-        <v>1.03197327748399</v>
+        <v>0.9788249497698174</v>
       </c>
       <c r="E24">
-        <v>1.027970656663211</v>
+        <v>0.9637262431175637</v>
       </c>
       <c r="F24">
-        <v>1.035928514682806</v>
+        <v>0.9593330425480323</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03202573722976</v>
+        <v>1.025276721891186</v>
       </c>
       <c r="J24">
-        <v>1.0342506948428</v>
+        <v>0.9799388074051422</v>
       </c>
       <c r="K24">
-        <v>1.035357451234523</v>
+        <v>0.9932344153149357</v>
       </c>
       <c r="L24">
-        <v>1.031368979059058</v>
+        <v>0.9784217879951077</v>
       </c>
       <c r="M24">
-        <v>1.03929882559223</v>
+        <v>0.9741140459281858</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.030843247153842</v>
+        <v>0.9670875860663326</v>
       </c>
       <c r="D25">
-        <v>1.034128193999135</v>
+        <v>0.9914320664185166</v>
       </c>
       <c r="E25">
-        <v>1.03042124238626</v>
+        <v>0.9776345009919165</v>
       </c>
       <c r="F25">
-        <v>1.03890169638392</v>
+        <v>0.9761545854436555</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032715888075868</v>
+        <v>1.030376357157829</v>
       </c>
       <c r="J25">
-        <v>1.036466060332154</v>
+        <v>0.9927757215244792</v>
       </c>
       <c r="K25">
-        <v>1.037185986579461</v>
+        <v>1.004164860763134</v>
       </c>
       <c r="L25">
-        <v>1.033490772079454</v>
+        <v>0.9905902271979437</v>
       </c>
       <c r="M25">
-        <v>1.041944509716573</v>
+        <v>0.9891347046819736</v>
       </c>
     </row>
   </sheetData>
